--- a/ExcelDiff.qt/test/a.xlsx
+++ b/ExcelDiff.qt/test/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\Excel_Diff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\C++\ExcelDiff.qt\ExcelDiff.qt\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0429B627-6B9B-4812-8078-FD1B5A595D31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F1054-D909-4767-854C-AA0F57F0B115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20904" yWindow="2256" windowWidth="17280" windowHeight="8964" xr2:uid="{D6249EBC-3C41-4410-98C4-655F9F0DDD0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{D6249EBC-3C41-4410-98C4-655F9F0DDD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>的发射点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啊手动阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5374BE0-93FE-4689-8D2D-48667E5A670B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,32 +499,20 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
       <c r="B9">
         <v>200</v>
       </c>
       <c r="C9">
         <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
